--- a/DesignPattern/DesignPattern.xlsx
+++ b/DesignPattern/DesignPattern.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\eclipse\workspace\DesignPattern\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h.yoshida\git\DesignPattern\DesignPattern\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="クラス図に関して" sheetId="1" r:id="rId1"/>
+    <sheet name="Iterator" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -85,6 +85,1390 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="133350"/>
+          <a:ext cx="1838325" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>クラス間相互関係の表現</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="グループ化 13"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="304800" y="1057275"/>
+          <a:ext cx="4648201" cy="1962151"/>
+          <a:chOff x="304800" y="1057275"/>
+          <a:chExt cx="4648201" cy="1962151"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="504825" y="1238250"/>
+            <a:ext cx="4448176" cy="1781176"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>クラス間で結びつきがある場合に使用する。</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="304800" y="1057275"/>
+            <a:ext cx="523875" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>関連</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>27768</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="グループ化 11"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6600825" y="352425"/>
+          <a:ext cx="6457143" cy="5057775"/>
+          <a:chOff x="5257800" y="371475"/>
+          <a:chExt cx="6457143" cy="5057775"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7534275" y="5143500"/>
+            <a:ext cx="1838325" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng"/>
+              <a:t>図</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng"/>
+              <a:t>.2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng"/>
+              <a:t>　多重度</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="9" name="図 8"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6124575" y="371475"/>
+            <a:ext cx="4514286" cy="2304762"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7553325" y="2781300"/>
+            <a:ext cx="1838325" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng"/>
+              <a:t>図</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng"/>
+              <a:t>.1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng"/>
+              <a:t>　線形</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="11" name="図 10"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5257800" y="3143250"/>
+            <a:ext cx="6457143" cy="1904762"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>513869</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161758</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="1571625"/>
+          <a:ext cx="3847619" cy="1333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="グループ化 15"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="257175" y="3381375"/>
+          <a:ext cx="4648201" cy="1676400"/>
+          <a:chOff x="304800" y="1077504"/>
+          <a:chExt cx="4648201" cy="1186730"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="504825" y="1238250"/>
+            <a:ext cx="4448176" cy="1025984"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>関連の一種で、オブジェクトが複数集まって全体を構成する関係。</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>双方のオブジェクトに「全体－部分」の関係が成り立っているときに用いる</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="304800" y="1077504"/>
+            <a:ext cx="523875" cy="188798"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>集約</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="27" name="グループ化 26"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="257175" y="5172075"/>
+          <a:ext cx="4648201" cy="2981325"/>
+          <a:chOff x="257175" y="6372225"/>
+          <a:chExt cx="4648201" cy="2981325"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="19" name="グループ化 18"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="257175" y="6372225"/>
+            <a:ext cx="4648201" cy="2981325"/>
+            <a:chOff x="304800" y="1000125"/>
+            <a:chExt cx="4648201" cy="2981325"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="504825" y="1238250"/>
+              <a:ext cx="4448176" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>関連の一種で集約よりも結びつきが強い場合、「全体－部分」などにおいて双方が存在して初めて成り立つような関係のときに用いる</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="304800" y="1000125"/>
+              <a:ext cx="1028700" cy="285750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>コンポジション</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="22" name="図 21"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="742950" y="7058025"/>
+            <a:ext cx="3838095" cy="1971429"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>494815</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="4133850"/>
+          <a:ext cx="3876190" cy="866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="29" name="グループ化 28"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="238125" y="8248650"/>
+          <a:ext cx="4648201" cy="2019301"/>
+          <a:chOff x="6943725" y="6762750"/>
+          <a:chExt cx="4648201" cy="2019301"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="23" name="グループ化 22"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6943725" y="6762750"/>
+            <a:ext cx="4648201" cy="2019301"/>
+            <a:chOff x="304800" y="1000125"/>
+            <a:chExt cx="4648201" cy="2019301"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="504825" y="1238250"/>
+              <a:ext cx="4448176" cy="1781176"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>相手の状態、もしくはイベントに対して影響を受ける関係のときに用いる</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="304800" y="1000125"/>
+              <a:ext cx="495300" cy="285750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>依存</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="28" name="図 27"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7448550" y="7286625"/>
+            <a:ext cx="3838095" cy="1352381"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="36" name="グループ化 35"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="209550" y="10477500"/>
+          <a:ext cx="4648201" cy="2762250"/>
+          <a:chOff x="152400" y="10477500"/>
+          <a:chExt cx="4648201" cy="2762250"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="31" name="グループ化 30"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="152400" y="10477500"/>
+            <a:ext cx="4648201" cy="2762250"/>
+            <a:chOff x="304800" y="1000125"/>
+            <a:chExt cx="4648201" cy="2762250"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="33" name="正方形/長方形 32"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="504825" y="1238250"/>
+              <a:ext cx="4448176" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>Java</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>などの継承関係を表す</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="34" name="正方形/長方形 33"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="304800" y="1000125"/>
+              <a:ext cx="495300" cy="285750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>汎化</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="35" name="図 34"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="466725" y="11029950"/>
+            <a:ext cx="4190476" cy="2161905"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="38" name="グループ化 37"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="190500" y="13344525"/>
+          <a:ext cx="4648201" cy="2762250"/>
+          <a:chOff x="304800" y="1000125"/>
+          <a:chExt cx="4648201" cy="2762250"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="正方形/長方形 39"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="504825" y="1238250"/>
+            <a:ext cx="4448176" cy="2524125"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Java</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>などの</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>interface</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>と同等の意味。</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>相手を具現化する関係のときに用いる</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="正方形/長方形 40"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="304800" y="1000125"/>
+            <a:ext cx="495300" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>実現</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485300</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>85477</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="図 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="14049375"/>
+          <a:ext cx="3800000" cy="1980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1" descr="クラス図1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4524375" y="419100"/>
+          <a:ext cx="4714875" cy="3848100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="581025"/>
+          <a:ext cx="3086100" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>集約オブジェクトの種類や実装に依存しない統一的な走査方法を提供したいときに用いる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="276225" y="171450"/>
+          <a:ext cx="1552575" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>Iterator</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>パターン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -352,12 +1736,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -365,12 +1752,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -378,7 +1768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
